--- a/Results/Location_description.xlsx
+++ b/Results/Location_description.xlsx
@@ -1,31 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agustin/Desktop/Papers/Canary_Island_Project/spatial_modularity_in_the_canary_islands/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386ADA55-575D-0148-AF47-C0999F6ABD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC23913-6994-6B48-81F4-6A5253C67928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{3AFA1387-E540-684D-951C-EA54DDD746BE}"/>
+    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{3AFA1387-E540-684D-951C-EA54DDD746BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Co_occurrence between layers" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>Plant richness</t>
   </si>
@@ -79,13 +92,22 @@
   </si>
   <si>
     <t>α - richness</t>
+  </si>
+  <si>
+    <t>Layers</t>
+  </si>
+  <si>
+    <t>Nodes</t>
+  </si>
+  <si>
+    <t>Links</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,6 +133,34 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -132,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -142,6 +192,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947FF48E-D04C-6F4A-9BC3-516C28906117}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView zoomScale="108" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -692,4 +755,305 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5E6312-4792-314A-B69D-0BE187B64EFA}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>72</v>
+      </c>
+      <c r="C2" s="5">
+        <v>541</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>65</v>
+      </c>
+      <c r="C3" s="5">
+        <v>598</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>62</v>
+      </c>
+      <c r="C4" s="5">
+        <v>727</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>84</v>
+      </c>
+      <c r="C5" s="5">
+        <v>699</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>78</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1019</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>67</v>
+      </c>
+      <c r="C7" s="5">
+        <v>632</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>65</v>
+      </c>
+      <c r="C8" s="5">
+        <v>511</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87375B6-C928-7D45-A836-F2A79B485AE2}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="9">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5">
+        <v>30</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5">
+        <v>27</v>
+      </c>
+      <c r="E6" s="5">
+        <v>36</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5">
+        <v>27</v>
+      </c>
+      <c r="E7" s="5">
+        <v>33</v>
+      </c>
+      <c r="F7" s="5">
+        <v>27</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5">
+        <v>11</v>
+      </c>
+      <c r="D8" s="5">
+        <v>19</v>
+      </c>
+      <c r="E8" s="5">
+        <v>22</v>
+      </c>
+      <c r="F8" s="5">
+        <v>26</v>
+      </c>
+      <c r="G8" s="5">
+        <v>27</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results/Location_description.xlsx
+++ b/Results/Location_description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agustin/Desktop/Papers/Canary_Island_Project/spatial_modularity_in_the_canary_islands/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC23913-6994-6B48-81F4-6A5253C67928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D491A920-7AB8-7B40-9AF5-22C61CB8D44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{3AFA1387-E540-684D-951C-EA54DDD746BE}"/>
   </bookViews>
@@ -182,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -204,6 +204,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -872,53 +875,65 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="9">
+      <c r="B1" s="6">
         <v>1</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="6">
         <v>2</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="6">
         <v>3</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="6">
         <v>4</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="6">
         <v>5</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="6">
         <v>6</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="8"/>
+      <c r="C2" s="5">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5">
+        <v>10</v>
+      </c>
+      <c r="H2" s="8">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="5">
@@ -927,14 +942,24 @@
       <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="8"/>
+      <c r="D3" s="5">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5">
+        <v>19</v>
+      </c>
+      <c r="F3" s="5">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5">
+        <v>20</v>
+      </c>
+      <c r="H3" s="8">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="5">
@@ -946,13 +971,21 @@
       <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="8"/>
+      <c r="E4" s="5">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5">
+        <v>27</v>
+      </c>
+      <c r="G4" s="5">
+        <v>27</v>
+      </c>
+      <c r="H4" s="8">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="5">
@@ -967,12 +1000,18 @@
       <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="8"/>
+      <c r="F5" s="5">
+        <v>36</v>
+      </c>
+      <c r="G5" s="5">
+        <v>33</v>
+      </c>
+      <c r="H5" s="8">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="5">
@@ -990,11 +1029,15 @@
       <c r="F6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="8"/>
+      <c r="G6" s="5">
+        <v>27</v>
+      </c>
+      <c r="H6" s="8">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="5">
@@ -1015,10 +1058,12 @@
       <c r="G7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="8">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="5">
